--- a/Training/WorkBook.xlsx
+++ b/Training/WorkBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/davidstevens_dxc_com/Documents/Projects/DXC/Digital Explorer/DevNotes/Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{7F5E47B7-5F39-4B1E-A693-FA54A8DDF8C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{968C1EE3-CC3E-442B-8BEE-5D0D990CEFC6}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{7F5E47B7-5F39-4B1E-A693-FA54A8DDF8C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A8271555-69C4-4ABC-A057-42466517AD1C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7C1B6156-F601-4AEA-8B64-16AC26D18BEC}"/>
+    <workbookView xWindow="10185" yWindow="2175" windowWidth="17490" windowHeight="14370" xr2:uid="{7C1B6156-F601-4AEA-8B64-16AC26D18BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="107">
   <si>
     <t>Review sales-focused playbooks</t>
   </si>
@@ -236,9 +236,6 @@
     <t>how to share an existing workspace - prereq "participate in a workspace"</t>
   </si>
   <si>
-    <t>joining an account, creating a new agenda, using a template, the canvas, rick table, ideas</t>
-  </si>
-  <si>
     <t>review roadmap summary, creating ideas and voting</t>
   </si>
   <si>
@@ -342,6 +339,21 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>Create a roadmap summary playbook for your client</t>
+  </si>
+  <si>
+    <t>Detailed overview of the playbook creator and how to create "awesome" pages</t>
+  </si>
+  <si>
+    <t>Join or create a new account</t>
+  </si>
+  <si>
+    <t>creating a new agenda, using a template, the canvas, rick table, ideas</t>
+  </si>
+  <si>
+    <t>joining an account</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +467,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -484,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -530,6 +548,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3F91AB-90B5-4893-92E7-17E06E13803C}">
-  <dimension ref="A1:AD84"/>
+  <dimension ref="A1:AD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z58" sqref="Z58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1221,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D32" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -1210,18 +1232,18 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
       <c r="N32" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="R32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="T32" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="V32" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="T32" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="V32" s="19" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
@@ -1266,7 +1288,7 @@
         <v>53</v>
       </c>
       <c r="X33" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y33" s="22"/>
       <c r="Z33" s="22"/>
@@ -1280,16 +1302,16 @@
         <v>62</v>
       </c>
       <c r="X34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Y34" s="3" t="s">
+      <c r="Z34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Z34" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="AA34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
@@ -1297,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -1336,12 +1358,12 @@
       <c r="AB35" s="21"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>35</v>
@@ -1358,7 +1380,7 @@
       <c r="V36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W36" s="9"/>
+      <c r="W36" s="6"/>
       <c r="Y36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1397,157 +1419,154 @@
       </c>
       <c r="AB37" s="21"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="W38" s="8"/>
+      <c r="X38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>2</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W40" s="7"/>
-      <c r="X40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" t="s">
+      <c r="D41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W41" s="7"/>
+      <c r="X41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W41" s="6"/>
-      <c r="AB41" s="4"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="5"/>
       <c r="G42" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R42" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W42" s="8"/>
+      <c r="L42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W42" s="6"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W43" s="8"/>
+      <c r="X43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W45" s="8"/>
-      <c r="X45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>35</v>
+      <c r="A46" s="8">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="W46" s="8"/>
       <c r="X46" s="4" t="s">
@@ -1556,439 +1575,516 @@
       <c r="Y46" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="Z46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB46" s="21"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W47" s="8"/>
+      <c r="X47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W48" s="8"/>
+      <c r="X48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>4</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W51" s="7"/>
+      <c r="X51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA51" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W49" s="7"/>
-      <c r="X49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y49" s="4" t="s">
+      <c r="G52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W52" s="6"/>
+      <c r="Y52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z52" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>5</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W55" s="7"/>
+      <c r="X55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA55" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W56" s="6"/>
+      <c r="Y56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W57" s="9"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W60" s="7"/>
+      <c r="X60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Z49" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA49" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W50" s="6"/>
-      <c r="Y50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z50" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>5</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W53" s="7"/>
-      <c r="X53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z53" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA53" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="Z60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA60" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
         <v>72</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W54" s="6"/>
-      <c r="Y54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z54" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W55" s="9"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W58" s="7"/>
-      <c r="X58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y58" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z58" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA58" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W61" s="6"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W59" s="6"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T60" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W60" s="6"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W62" s="6"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>55</v>
       </c>
-      <c r="Y65" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+      <c r="Y67" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y69" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y70" s="4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="Y71" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y72" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B74" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B75" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y75" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
-        <v>93</v>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y77" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="12" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="16" t="s">
-        <v>92</v>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
